--- a/biology/Zoologie/Gonioctena/Gonioctena.xlsx
+++ b/biology/Zoologie/Gonioctena/Gonioctena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gonioctena est un genre d'insectes coléoptères de la famille des Chrysomelidae. Certaines espèces ressemblent beaucoup par leur aspect à des coccinelles.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Phytodecta 
 </t>
@@ -542,21 +556,23 @@
           <t>Taxons inférieurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification de ce genre diffère selon les bases de données.
-Selon Catalogue of Life et Animal Diversity Web, il y aurait quatre espèces[1] :
+Selon Catalogue of Life et Animal Diversity Web, il y aurait quatre espèces :
 Gonioctena americana
 Gonioctena nivosa
 Gonioctena notmani
 Gonioctena occidentalis
-Selon ITIS[2] il faut leur ajouter un sous-genre :
+Selon ITIS il faut leur ajouter un sous-genre :
 Gonioctena (Gonioctena) Chevrolat in Dejean, 1836
 et deux sous-espèces :
 Gonioctena nivosa alberta Brown, 1952
 Gonioctena nivosa arctica Mannerheim, 1853
-Selon Fauna Europaea il y aurait six sous-genres[3] et il y aurait beaucoup plus d'espèces d'après NCBI et la classification phylogénétique[4].
-Selon NCBI  (24 mai 2013)[5] :
+Selon Fauna Europaea il y aurait six sous-genres et il y aurait beaucoup plus d'espèces d'après NCBI et la classification phylogénétique.
+Selon NCBI  (24 mai 2013) :
 Gonioctena decemnotata
 Gonioctena fornicata
 Gonioctena holdausi
